--- a/data/trans_camb/IP25-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP25-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-96,5</t>
+          <t>-95,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-97,45</t>
+          <t>-99,14</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-96,96</t>
+          <t>-97,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,25</t>
+          <t>1,29; 6,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,11</t>
+          <t>-0,55; 4,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-98,05; -94,37</t>
+          <t>-97,53; -93,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,62</t>
+          <t>-3,88; 0,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,85</t>
+          <t>-3,94; 0,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-98,79; -95,54</t>
+          <t>-99,78; -97,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 2,63</t>
+          <t>-0,52; 2,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,19</t>
+          <t>-1,49; 1,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-98,05; -95,64</t>
+          <t>-98,42; -95,74</t>
         </is>
       </c>
     </row>
@@ -954,12 +954,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>-1,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>-1,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -984,12 +984,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,41</t>
+          <t>1,33; 6,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 3,28</t>
+          <t>-0,57; 5,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,72</t>
+          <t>-3,91; 0,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,99</t>
+          <t>-3,97; 0,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 2,74</t>
+          <t>-0,53; 2,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,29</t>
+          <t>-1,51; 2,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-95,68</t>
+          <t>-96,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-99,14</t>
+          <t>-97,45</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1099,12 +1099,12 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-97,36</t>
+          <t>-96,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,29; 6,33</t>
+          <t>-1,17; 3,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 4,73</t>
+          <t>-1,99; 3,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-97,53; -93,25</t>
+          <t>-98,05; -94,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 0,07</t>
+          <t>-1,57; 2,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 0,13</t>
+          <t>-1,36; 2,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-99,78; -97,54</t>
+          <t>-98,79; -95,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,67</t>
+          <t>-0,6; 2,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,91</t>
+          <t>-0,94; 2,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-98,42; -95,74</t>
+          <t>-98,05; -95,64</t>
         </is>
       </c>
     </row>
@@ -1170,12 +1170,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1185,12 +1185,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,74%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,69%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1200,12 +1200,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,33; 6,82</t>
+          <t>-1,21; 3,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 5,04</t>
+          <t>-2,05; 3,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 0,06</t>
+          <t>-1,6; 2,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 0,13</t>
+          <t>-1,39; 2,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 2,77</t>
+          <t>-0,61; 2,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,0</t>
+          <t>-0,96; 2,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_camb/IP25-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP25-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,35</t>
+          <t>15,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,27</t>
+          <t>16,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-68,28</t>
+          <t>-45,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-72,64</t>
+          <t>-50,96</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>10,74</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-70,39</t>
+          <t>-48,3</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 14,59</t>
+          <t>5,52; 25,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 16,02</t>
+          <t>6,3; 26,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-73,46; -63,53</t>
+          <t>-53,55; -38,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 4,75</t>
+          <t>-5,37; 15,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 4,38</t>
+          <t>-5,57; 15,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-77,04; -67,3</t>
+          <t>-58,94; -43,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 7,73</t>
+          <t>3,85; 17,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 7,72</t>
+          <t>3,81; 17,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-73,65; -66,87</t>
+          <t>-53,5; -43,29</t>
         </is>
       </c>
     </row>
@@ -738,12 +738,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>33,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,23%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,69%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 22,38</t>
+          <t>10,24; 64,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 24,9</t>
+          <t>12,03; 65,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 6,93</t>
+          <t>-9,22; 33,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 6,33</t>
+          <t>-10,0; 33,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 11,44</t>
+          <t>7,54; 39,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 11,46</t>
+          <t>7,35; 39,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-95,68</t>
+          <t>-95,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-99,14</t>
+          <t>-97,35</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-97,36</t>
+          <t>-96,45</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 6,33</t>
+          <t>1,02; 5,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 4,73</t>
+          <t>-1,28; 4,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-97,53; -93,25</t>
+          <t>-97,38; -93,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 0,07</t>
+          <t>-3,02; 1,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 0,13</t>
+          <t>-1,99; 2,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-99,78; -97,54</t>
+          <t>-98,63; -95,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,67</t>
+          <t>-0,2; 3,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,91</t>
+          <t>-0,89; 2,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-98,42; -95,74</t>
+          <t>-97,48; -94,91</t>
         </is>
       </c>
     </row>
@@ -954,12 +954,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,74%</t>
+          <t>-0,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,69%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -984,12 +984,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 6,82</t>
+          <t>1,06; 6,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 5,04</t>
+          <t>-1,3; 4,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 0,06</t>
+          <t>-3,09; 1,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 0,13</t>
+          <t>-2,03; 2,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 2,77</t>
+          <t>-0,21; 3,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,0</t>
+          <t>-0,92; 2,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-96,5</t>
+          <t>-95,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-97,45</t>
+          <t>-98,36</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-96,96</t>
+          <t>-96,69</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,25</t>
+          <t>-0,28; 6,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,11</t>
+          <t>0,91; 7,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-98,05; -94,37</t>
+          <t>-97,2; -91,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,62</t>
+          <t>-2,52; 2,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,85</t>
+          <t>-4,2; 1,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-98,79; -95,54</t>
+          <t>-99,49; -95,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 2,63</t>
+          <t>-0,76; 3,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,19</t>
+          <t>-0,92; 3,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-98,05; -95,64</t>
+          <t>-98,43; -94,64</t>
         </is>
       </c>
     </row>
@@ -1170,12 +1170,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1185,12 +1185,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>-0,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>-1,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1200,12 +1200,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,41</t>
+          <t>-0,14; 6,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 3,28</t>
+          <t>0,93; 8,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,72</t>
+          <t>-2,54; 2,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,99</t>
+          <t>-4,23; 1,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 2,74</t>
+          <t>-0,77; 3,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,29</t>
+          <t>-0,94; 3,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-87,54</t>
+          <t>-96,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-90,31</t>
+          <t>-97,26</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-88,88</t>
+          <t>-97,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 6,59</t>
+          <t>-2,34; 3,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,31; 6,68</t>
+          <t>-4,77; 1,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-89,27; -85,22</t>
+          <t>-98,41; -94,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,47</t>
+          <t>-2,51; 2,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 2,18</t>
+          <t>-1,36; 3,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-91,9; -88,23</t>
+          <t>-98,71; -94,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 3,18</t>
+          <t>-1,51; 2,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 3,5</t>
+          <t>-2,34; 1,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-90,1; -87,45</t>
+          <t>-98,24; -95,42</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>-1,24%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1401,12 +1401,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,36%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,54%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1416,12 +1416,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,43; 7,75</t>
+          <t>-2,39; 3,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,49; 7,84</t>
+          <t>-4,84; 1,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 1,66</t>
+          <t>-2,55; 3,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 2,46</t>
+          <t>-1,36; 3,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 3,63</t>
+          <t>-1,54; 2,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 3,98</t>
+          <t>-2,39; 1,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1483,14 +1483,238 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3,72</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3,79</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-87,54</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-90,31</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-88,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 6,35</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 6,36</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-89,52; -85,66</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-3,88; 1,22</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,87; 2,13</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-91,98; -88,46</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 3,1</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 3,63</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-90,13; -87,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>4,25%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4,33%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-1,36%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-0,54%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1,37; 7,42</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 7,38</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; 1,37</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-3,14; 2,38</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 3,52</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 4,17</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP25-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP25-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 25,57</t>
+          <t>4,73; 24,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,3; 26,59</t>
+          <t>6,14; 27,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-53,55; -38,78</t>
+          <t>-53,36; -38,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 15,07</t>
+          <t>-4,61; 16,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 15,03</t>
+          <t>-4,8; 15,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,94; -43,57</t>
+          <t>-59,18; -42,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,85; 17,79</t>
+          <t>3,74; 17,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 17,47</t>
+          <t>3,68; 17,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-53,5; -43,29</t>
+          <t>-53,48; -42,87</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,24; 64,09</t>
+          <t>9,11; 60,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,03; 65,58</t>
+          <t>11,94; 67,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 33,77</t>
+          <t>-7,76; 37,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 33,01</t>
+          <t>-8,21; 34,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,54; 39,3</t>
+          <t>7,09; 40,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,35; 39,56</t>
+          <t>6,79; 39,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 5,73</t>
+          <t>1,31; 6,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,09</t>
+          <t>-1,51; 3,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-97,38; -93,09</t>
+          <t>-97,36; -92,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 1,71</t>
+          <t>-3,01; 1,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 2,53</t>
+          <t>-1,96; 2,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-98,63; -95,55</t>
+          <t>-98,58; -95,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 3,0</t>
+          <t>-0,23; 3,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 2,42</t>
+          <t>-1,01; 2,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-97,48; -94,91</t>
+          <t>-97,64; -95,0</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 6,12</t>
+          <t>1,36; 6,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 4,4</t>
+          <t>-1,56; 4,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 1,78</t>
+          <t>-3,06; 1,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,63</t>
+          <t>-1,99; 2,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 3,14</t>
+          <t>-0,2; 3,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 2,53</t>
+          <t>-1,04; 2,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 6,37</t>
+          <t>-0,31; 6,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,42</t>
+          <t>0,54; 6,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-97,2; -91,44</t>
+          <t>-97,59; -91,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 2,38</t>
+          <t>-2,61; 2,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 1,16</t>
+          <t>-4,44; 1,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-99,49; -95,63</t>
+          <t>-99,5; -95,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,6</t>
+          <t>-0,46; 3,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 3,56</t>
+          <t>-1,01; 3,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-98,43; -94,64</t>
+          <t>-98,21; -94,42</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 6,92</t>
+          <t>-0,3; 7,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,08</t>
+          <t>0,57; 7,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,46</t>
+          <t>-2,62; 2,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 1,2</t>
+          <t>-4,49; 1,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,78</t>
+          <t>-0,48; 4,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,74</t>
+          <t>-1,02; 3,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,23</t>
+          <t>-2,25; 3,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 1,9</t>
+          <t>-4,74; 1,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-98,41; -94,29</t>
+          <t>-98,46; -94,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,88</t>
+          <t>-2,38; 2,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,45</t>
+          <t>-1,52; 3,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-98,71; -94,8</t>
+          <t>-98,8; -94,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,35</t>
+          <t>-1,58; 2,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,74</t>
+          <t>-2,38; 1,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-98,24; -95,42</t>
+          <t>-98,32; -95,45</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,39</t>
+          <t>-2,32; 3,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 1,99</t>
+          <t>-4,84; 1,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 3,01</t>
+          <t>-2,4; 3,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,62</t>
+          <t>-1,55; 3,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,45</t>
+          <t>-1,62; 2,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,81</t>
+          <t>-2,44; 1,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,21; 6,35</t>
+          <t>1,02; 6,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,86; 6,36</t>
+          <t>1,01; 6,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-89,52; -85,66</t>
+          <t>-89,33; -85,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 1,22</t>
+          <t>-3,61; 1,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,13</t>
+          <t>-3,12; 1,98</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-91,98; -88,46</t>
+          <t>-91,93; -88,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,1</t>
+          <t>-0,7; 3,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,63</t>
+          <t>-0,13; 3,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-90,13; -87,46</t>
+          <t>-90,15; -87,52</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,42</t>
+          <t>1,16; 7,45</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,98; 7,38</t>
+          <t>1,15; 7,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 1,37</t>
+          <t>-3,95; 1,72</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 2,38</t>
+          <t>-3,42; 2,21</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 3,52</t>
+          <t>-0,78; 3,46</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 4,17</t>
+          <t>-0,14; 3,93</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">

--- a/data/trans_camb/IP25-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP25-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>5,91</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4,91</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-50,96</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>15,27</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>16,46</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>-45,99</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,91</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,91</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-50,96</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,73; 24,87</t>
+          <t>-5,62; 15,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,14; 27,12</t>
+          <t>-5,65; 14,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-53,36; -38,53</t>
+          <t>-58,83; -43,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 16,45</t>
+          <t>5,82; 25,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 15,23</t>
+          <t>7,1; 26,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-59,18; -42,45</t>
+          <t>-52,67; -38,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 17,75</t>
+          <t>3,38; 17,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 17,59</t>
+          <t>3,51; 17,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-53,48; -42,87</t>
+          <t>-53,36; -42,88</t>
         </is>
       </c>
     </row>
@@ -738,27 +738,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>11,59%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9,63%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>33,19%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>35,79%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>11,59%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>9,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,11; 60,84</t>
+          <t>-9,42; 34,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,94; 67,69</t>
+          <t>-9,86; 33,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 37,83</t>
+          <t>10,76; 64,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 34,1</t>
+          <t>13,67; 64,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,09; 40,1</t>
+          <t>6,44; 39,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,79; 39,86</t>
+          <t>6,32; 40,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-97,35</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>3,39</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>1,29</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>-95,55</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-97,35</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 6,18</t>
+          <t>-2,95; 1,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 3,87</t>
+          <t>-1,97; 2,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-97,36; -92,82</t>
+          <t>-98,59; -95,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 1,87</t>
+          <t>1,46; 6,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 2,42</t>
+          <t>-1,33; 4,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-98,58; -95,47</t>
+          <t>-97,25; -92,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 3,1</t>
+          <t>-0,07; 3,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,61</t>
+          <t>-0,88; 2,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-97,64; -95,0</t>
+          <t>-97,51; -94,97</t>
         </is>
       </c>
     </row>
@@ -954,27 +954,27 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-0,62%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>3,55%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>1,35%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,62%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 6,7</t>
+          <t>-3,03; 1,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 4,13</t>
+          <t>-2,02; 2,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 1,96</t>
+          <t>1,5; 6,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 2,51</t>
+          <t>-1,3; 4,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 3,27</t>
+          <t>-0,07; 3,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,74</t>
+          <t>-0,9; 2,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-98,36</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>2,95</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>3,57</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>-95,18</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-1,37</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-98,36</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 6,57</t>
+          <t>-2,2; 3,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 6,94</t>
+          <t>-3,93; 1,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-97,59; -91,33</t>
+          <t>-99,5; -95,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,52</t>
+          <t>-0,38; 6,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 1,37</t>
+          <t>0,65; 7,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-99,5; -95,58</t>
+          <t>-97,6; -91,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,94</t>
+          <t>-0,66; 3,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 3,33</t>
+          <t>-0,98; 3,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-98,21; -94,42</t>
+          <t>-98,24; -94,61</t>
         </is>
       </c>
     </row>
@@ -1170,27 +1170,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-0,15%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-1,39%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>3,1%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>3,75%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,15%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-1,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 7,22</t>
+          <t>-2,2; 3,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,57; 7,55</t>
+          <t>-4,02; 1,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 2,62</t>
+          <t>-0,38; 7,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 1,41</t>
+          <t>0,67; 7,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,17</t>
+          <t>-0,67; 3,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,51</t>
+          <t>-1,0; 3,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-97,26</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,65</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-1,2</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>-96,89</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-97,26</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 3,4</t>
+          <t>-2,75; 2,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 1,72</t>
+          <t>-1,55; 3,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-98,46; -94,44</t>
+          <t>-98,85; -94,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,98</t>
+          <t>-2,18; 3,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,71</t>
+          <t>-4,52; 1,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-98,8; -94,84</t>
+          <t>-98,44; -94,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,37</t>
+          <t>-1,71; 2,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,8</t>
+          <t>-2,15; 1,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-98,32; -95,45</t>
+          <t>-98,13; -95,43</t>
         </is>
       </c>
     </row>
@@ -1386,27 +1386,27 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>0,67%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-1,24%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>0,31%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>0,94%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 3,55</t>
+          <t>-2,8; 2,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 1,79</t>
+          <t>-1,58; 3,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 3,12</t>
+          <t>-2,24; 3,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 3,89</t>
+          <t>-4,62; 2,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,47</t>
+          <t>-1,74; 2,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,87</t>
+          <t>-2,2; 1,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-90,31</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>3,72</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>3,79</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>-87,54</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-1,23</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-90,31</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,02; 6,37</t>
+          <t>-3,85; 1,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,01; 6,35</t>
+          <t>-2,99; 2,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-89,33; -85,61</t>
+          <t>-91,9; -88,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 1,5</t>
+          <t>1,28; 6,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 1,98</t>
+          <t>1,31; 6,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-91,93; -88,37</t>
+          <t>-89,27; -85,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 3,06</t>
+          <t>-0,53; 3,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,44</t>
+          <t>-0,16; 3,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-90,15; -87,52</t>
+          <t>-90,1; -87,45</t>
         </is>
       </c>
     </row>
@@ -1602,27 +1602,27 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-1,36%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-0,54%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>4,25%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>4,33%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-1,36%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-0,54%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1,16; 7,45</t>
+          <t>-4,22; 1,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1,15; 7,43</t>
+          <t>-3,26; 2,46</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 1,72</t>
+          <t>1,43; 7,75</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 2,21</t>
+          <t>1,49; 7,84</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,46</t>
+          <t>-0,6; 3,63</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 3,93</t>
+          <t>-0,17; 3,98</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
